--- a/hw6/hw6_results.xlsx
+++ b/hw6/hw6_results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TP</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>PIPELINE_RECORDLINKAGE_B2_ALL</t>
+  </si>
+  <si>
+    <t>DEDUPE_B1_TEST</t>
+  </si>
+  <si>
+    <t>DEDUPE_B2_TEST</t>
+  </si>
+  <si>
+    <t>PIPELINE_DEDUPE_B1_TEST</t>
+  </si>
+  <si>
+    <t>PIPELINE_DEDUPE_B2_TEST</t>
   </si>
 </sst>
 </file>
@@ -101,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -124,14 +136,46 @@
       </bottom>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,15 +723,15 @@
         <v>2543</v>
       </c>
       <c r="F2">
-        <f>(B2/(B2+C2))</f>
+        <f t="shared" ref="F2:F9" si="0">(B2/(B2+C2))</f>
         <v>0.99228395061728392</v>
       </c>
       <c r="G2">
-        <f>(B2/(B2+D2))</f>
+        <f t="shared" ref="G2:G9" si="1">(B2/(B2+D2))</f>
         <v>0.7485448195576252</v>
       </c>
       <c r="H2">
-        <f>(2*((F2*G2)/(F2+G2)))</f>
+        <f t="shared" ref="H2:H9" si="2">(2*((F2*G2)/(F2+G2)))</f>
         <v>0.85335102853351019</v>
       </c>
     </row>
@@ -708,15 +752,15 @@
         <v>2527</v>
       </c>
       <c r="F3">
-        <f>(B3/(B3+C3))</f>
+        <f t="shared" si="0"/>
         <v>0.98755020080321287</v>
       </c>
       <c r="G3">
-        <f>(B3/(B3+D3))</f>
+        <f t="shared" si="1"/>
         <v>0.95421032207993794</v>
       </c>
       <c r="H3">
-        <f>(2*((F3*G3)/(F3+G3)))</f>
+        <f t="shared" si="2"/>
         <v>0.97059403986579829</v>
       </c>
     </row>
@@ -737,15 +781,15 @@
         <v>4163</v>
       </c>
       <c r="F4">
-        <f>(B4/(B4+C4))</f>
+        <f t="shared" si="0"/>
         <v>0.99022303696914149</v>
       </c>
       <c r="G4">
-        <f>(B4/(B4+D4))</f>
+        <f t="shared" si="1"/>
         <v>0.74988431281813972</v>
       </c>
       <c r="H4">
-        <f>(2*((F4*G4)/(F4+G4)))</f>
+        <f t="shared" si="2"/>
         <v>0.85345622119815678</v>
       </c>
     </row>
@@ -766,15 +810,15 @@
         <v>4126</v>
       </c>
       <c r="F5">
-        <f>(B5/(B5+C5))</f>
+        <f t="shared" si="0"/>
         <v>0.98358705994291151</v>
       </c>
       <c r="G5">
-        <f>(B5/(B5+D5))</f>
+        <f t="shared" si="1"/>
         <v>0.95673299398426659</v>
       </c>
       <c r="H5">
-        <f>(2*((F5*G5)/(F5+G5)))</f>
+        <f t="shared" si="2"/>
         <v>0.9699741965751818</v>
       </c>
     </row>
@@ -795,15 +839,15 @@
         <v>13</v>
       </c>
       <c r="F6">
-        <f>(B6/(B6+C6))</f>
+        <f t="shared" si="0"/>
         <v>0.99890049477735021</v>
       </c>
       <c r="G6">
-        <f>(B6/(B6+D6))</f>
+        <f t="shared" si="1"/>
         <v>0.94193882840850185</v>
       </c>
       <c r="H6">
-        <f>(2*((F6*G6)/(F6+G6)))</f>
+        <f t="shared" si="2"/>
         <v>0.96958377801494133</v>
       </c>
     </row>
@@ -824,15 +868,15 @@
         <v>24</v>
       </c>
       <c r="F7">
-        <f>(B7/(B7+C7))</f>
+        <f t="shared" si="0"/>
         <v>0.99698405859543304</v>
       </c>
       <c r="G7">
-        <f>(B7/(B7+D7))</f>
+        <f t="shared" si="1"/>
         <v>0.94103294021960149</v>
       </c>
       <c r="H7">
-        <f>(2*((F7*G7)/(F7+G7)))</f>
+        <f t="shared" si="2"/>
         <v>0.96820083682008373</v>
       </c>
     </row>
@@ -841,31 +885,31 @@
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <f>B6</f>
+        <f t="shared" ref="B8:B9" si="3">B6</f>
         <v>1817</v>
       </c>
       <c r="C8" s="1">
-        <f>C6</f>
+        <f t="shared" ref="C8:C9" si="4">C6</f>
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <f>D6+D2</f>
+        <f t="shared" ref="D8:D9" si="5">D6+D2</f>
         <v>760</v>
       </c>
       <c r="E8" s="1">
-        <f>E6+E2</f>
+        <f t="shared" ref="E8:E9" si="6">E6+E2</f>
         <v>2556</v>
       </c>
       <c r="F8" s="1">
-        <f>(B8/(B8+C8))</f>
+        <f t="shared" si="0"/>
         <v>0.99890049477735021</v>
       </c>
       <c r="G8" s="1">
-        <f>(B8/(B8+D8))</f>
+        <f t="shared" si="1"/>
         <v>0.7050834303453628</v>
       </c>
       <c r="H8" s="1">
-        <f>(2*((F8*G8)/(F8+G8)))</f>
+        <f t="shared" si="2"/>
         <v>0.8266606005459507</v>
       </c>
     </row>
@@ -874,31 +918,31 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <f>B7</f>
+        <f t="shared" si="3"/>
         <v>2314</v>
       </c>
       <c r="C9" s="1">
-        <f>C7</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <f>D7+D3</f>
+        <f t="shared" si="5"/>
         <v>263</v>
       </c>
       <c r="E9" s="1">
-        <f>E7+E3</f>
+        <f t="shared" si="6"/>
         <v>2551</v>
       </c>
       <c r="F9" s="1">
-        <f>(B9/(B9+C9))</f>
+        <f t="shared" si="0"/>
         <v>0.99698405859543304</v>
       </c>
       <c r="G9" s="1">
-        <f>(B9/(B9+D9))</f>
+        <f t="shared" si="1"/>
         <v>0.8979433449747769</v>
       </c>
       <c r="H9" s="1">
-        <f>(2*((F9*G9)/(F9+G9)))</f>
+        <f t="shared" si="2"/>
         <v>0.9448754593711719</v>
       </c>
     </row>
@@ -919,15 +963,15 @@
         <v>24</v>
       </c>
       <c r="F10" s="2">
-        <f>(B10/(B10+C10))</f>
+        <f t="shared" ref="F10:F13" si="7">(B10/(B10+C10))</f>
         <v>0.99738391105297575</v>
       </c>
       <c r="G10" s="2">
-        <f>(B10/(B10+D10))</f>
+        <f t="shared" ref="G10:G13" si="8">(B10/(B10+D10))</f>
         <v>0.94106757173711819</v>
       </c>
       <c r="H10" s="2">
-        <f>(2*((F10*G10)/(F10+G10)))</f>
+        <f t="shared" ref="H10:H13" si="9">(2*((F10*G10)/(F10+G10)))</f>
         <v>0.96840768375932684</v>
       </c>
     </row>
@@ -948,15 +992,15 @@
         <v>61</v>
       </c>
       <c r="F11" s="2">
-        <f>(B11/(B11+C11))</f>
+        <f t="shared" si="7"/>
         <v>0.997907949790795</v>
       </c>
       <c r="G11" s="2">
-        <f>(B11/(B11+D11))</f>
+        <f t="shared" si="8"/>
         <v>0.92285368802902057</v>
       </c>
       <c r="H11" s="2">
-        <f>(2*((F11*G11)/(F11+G11)))</f>
+        <f t="shared" si="9"/>
         <v>0.95891443648699592</v>
       </c>
     </row>
@@ -965,31 +1009,31 @@
         <v>17</v>
       </c>
       <c r="B12" s="1">
-        <f>B10</f>
+        <f t="shared" ref="B12:B13" si="10">B10</f>
         <v>3050</v>
       </c>
       <c r="C12" s="1">
-        <f>C10</f>
+        <f t="shared" ref="C12:C13" si="11">C10</f>
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <f>D10+D4</f>
+        <f t="shared" ref="D12:D13" si="12">D10+D4</f>
         <v>1272</v>
       </c>
       <c r="E12" s="1">
-        <f>E10+E4</f>
+        <f t="shared" ref="E12:E13" si="13">E10+E4</f>
         <v>4187</v>
       </c>
       <c r="F12" s="1">
-        <f>(B12/(B12+C12))</f>
+        <f t="shared" si="7"/>
         <v>0.99738391105297575</v>
       </c>
       <c r="G12" s="1">
-        <f>(B12/(B12+D12))</f>
+        <f t="shared" si="8"/>
         <v>0.70569180934752429</v>
       </c>
       <c r="H12" s="1">
-        <f>(2*((F12*G12)/(F12+G12)))</f>
+        <f t="shared" si="9"/>
         <v>0.82655826558265588</v>
       </c>
     </row>
@@ -998,32 +1042,156 @@
         <v>18</v>
       </c>
       <c r="B13" s="1">
-        <f>B11</f>
+        <f t="shared" si="10"/>
         <v>3816</v>
       </c>
       <c r="C13" s="1">
-        <f>C11</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="D13" s="1">
-        <f>D11+D5</f>
+        <f t="shared" si="12"/>
         <v>506</v>
       </c>
       <c r="E13" s="1">
-        <f>E11+E5</f>
+        <f t="shared" si="13"/>
         <v>4187</v>
       </c>
       <c r="F13" s="1">
-        <f>(B13/(B13+C13))</f>
+        <f t="shared" si="7"/>
         <v>0.997907949790795</v>
       </c>
       <c r="G13" s="1">
-        <f>(B13/(B13+D13))</f>
+        <f t="shared" si="8"/>
         <v>0.88292457195742713</v>
       </c>
       <c r="H13" s="1">
-        <f>(2*((F13*G13)/(F13+G13)))</f>
+        <f t="shared" si="9"/>
         <v>0.93690154677142146</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>1929</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f>(B14/(B14+C14))</f>
+        <v>0.99228395061728392</v>
+      </c>
+      <c r="G14" s="3">
+        <f>(B14/(B14+D14))</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <f>(2*((F14*G14)/(F14+G14)))</f>
+        <v>0.99612703330751351</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2455</v>
+      </c>
+      <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <f>(B15/(B15+C15))</f>
+        <v>0.98872331856625051</v>
+      </c>
+      <c r="G15" s="4">
+        <f>(B15/(B15+D15))</f>
+        <v>0.99837332248881661</v>
+      </c>
+      <c r="H15" s="4">
+        <f>(2*((F15*G15)/(F15+G15)))</f>
+        <v>0.99352488870902467</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5">
+        <f>B14</f>
+        <v>1929</v>
+      </c>
+      <c r="C16" s="5">
+        <f>C14</f>
+        <v>15</v>
+      </c>
+      <c r="D16" s="5">
+        <f>D14+D2</f>
+        <v>648</v>
+      </c>
+      <c r="E16" s="5">
+        <f>E14+E2</f>
+        <v>2543</v>
+      </c>
+      <c r="F16" s="5">
+        <f>(B16/(B16+C16))</f>
+        <v>0.99228395061728392</v>
+      </c>
+      <c r="G16" s="5">
+        <f>(B16/(B16+D16))</f>
+        <v>0.7485448195576252</v>
+      </c>
+      <c r="H16" s="5">
+        <f>(2*((F16*G16)/(F16+G16)))</f>
+        <v>0.85335102853351019</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5">
+        <f>B15</f>
+        <v>2455</v>
+      </c>
+      <c r="C17" s="5">
+        <f>C15</f>
+        <v>28</v>
+      </c>
+      <c r="D17" s="5">
+        <f>D15+D3</f>
+        <v>122</v>
+      </c>
+      <c r="E17" s="5">
+        <f>E15+E3</f>
+        <v>2530</v>
+      </c>
+      <c r="F17" s="5">
+        <f>(B17/(B17+C17))</f>
+        <v>0.98872331856625051</v>
+      </c>
+      <c r="G17" s="5">
+        <f>(B17/(B17+D17))</f>
+        <v>0.95265812960807139</v>
+      </c>
+      <c r="H17" s="5">
+        <f>(2*((F17*G17)/(F17+G17)))</f>
+        <v>0.9703557312252965</v>
       </c>
     </row>
   </sheetData>
